--- a/Code/Results/Cases/Case_2_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_56/res_line/pl_mw.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>1.390742831773494</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>1.895061171842784</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.170038921572853</v>
       </c>
       <c r="G24">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_56/res_line/pl_mw.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.390742831773494</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.895061171842784</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.170038921572853</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_56/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,8 +447,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -482,8 +488,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -520,8 +529,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -558,8 +570,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -596,8 +611,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -634,8 +652,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -672,8 +693,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -710,8 +734,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -748,8 +775,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -786,8 +816,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -824,8 +857,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -862,8 +898,11 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -900,8 +939,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -938,8 +980,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -976,8 +1021,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1014,8 +1062,11 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1052,8 +1103,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1090,8 +1144,11 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1128,8 +1185,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1166,8 +1226,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1204,8 +1267,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1242,8 +1308,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1280,8 +1349,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_56/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -450,8 +456,14 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -468,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -491,8 +503,14 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -532,8 +550,14 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -550,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -573,8 +597,14 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -591,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -614,8 +644,14 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -632,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -655,8 +691,14 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -673,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>1.390742831773494</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -696,8 +738,14 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -714,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>1.895061171842784</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -737,8 +785,14 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -755,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -778,8 +832,14 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -819,8 +879,14 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -860,8 +926,14 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -878,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -901,8 +973,14 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -942,8 +1020,14 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -983,8 +1067,14 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1024,8 +1114,14 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1065,8 +1161,14 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1106,8 +1208,14 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1147,8 +1255,14 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1188,8 +1302,14 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1229,8 +1349,14 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1247,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1270,8 +1396,14 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1288,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1311,8 +1443,14 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1329,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.170038921572853</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1352,8 +1490,14 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1391,6 +1535,12 @@
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_56/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2.580510417913843</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.3081940552699933</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.04606800851744097</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007907587201756681</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3014221557304353</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.7361118952904349</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.567215353447494</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2.242804359469687</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.2825367926508875</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.04489434767398848</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.000795119183416481</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2647120655713167</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.7551938578665727</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.484537322077387</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2.03622758098129</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.2667562406677177</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.04426482986766977</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007978831422866189</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2424334713785612</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.7679947581130051</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.438087972405754</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.952204314432123</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.2603173211100369</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.0440302096866958</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.000799031706802517</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2334139776659754</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.7734755539282929</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.420177434106563</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.93826085471693</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.2592476068956699</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.0439925464255424</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007992237802879581</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2319196892989197</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.774401364289389</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.417262988204584</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2.035093819164899</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.2666694382533166</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.04426157825516874</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007978985416725708</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2423115999745562</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.7680676145302456</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.437842389154042</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2.463885388650283</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.2993520916846109</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.04564380320695705</v>
       </c>
       <c r="F8">
-        <v>1.390742831773494</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007922445076085598</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.288706162282196</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.7424610807063132</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.537770752398643</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>3.31271509308425</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.3633042671666828</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.04912495365401348</v>
       </c>
       <c r="F9">
-        <v>1.895061171842784</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007818226946852083</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3820798010770829</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.7012526709034432</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.771195654739671</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>3.943974691769256</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.4103242935104845</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.05222276949966798</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007745396257605339</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4526204934749529</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.6770605306689106</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.970334104833199</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>4.233478753585189</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.4317520449968413</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.05376610892426115</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007712999321025098</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4852479733354471</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.6675183050687323</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.068084916914216</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>4.343502935179004</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.4398743057861907</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.05437131928105643</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007700830275826909</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.4976908832555438</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.6641282100876822</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.106235088367555</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>4.319788691735255</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.4381246306781748</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.05424002721171561</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007703446805677194</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.4950070130546322</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.664848177602785</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.097966579559227</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>4.242522233599288</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.4324200916487371</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.05381547451811031</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007711996222122883</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.4862698421947442</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.6672348460808593</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2.071200199483769</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>4.195247599027653</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.428927023646537</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.05355817622736225</v>
       </c>
       <c r="F15">
         <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.000771724567158953</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.4809297965170032</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.6687262364170081</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>2.054955942176321</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>3.925106928422395</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.4089249190894577</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.05212473291611097</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007747527693803463</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.4504998941240217</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.677714662206867</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.964098693060237</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>3.760024149909555</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.3966657751608977</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.05128074501900315</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007766288214916495</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.43197698074556</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.6836123870328947</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.910266592599953</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>3.66528944600185</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.3896180587273648</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.05080783470629235</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007777148290593589</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.421373088385451</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.6871414652775627</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.879971179264231</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>3.633249386437001</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.3872323364660417</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.05064982349674096</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007780837458955057</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.4177910818616368</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.6883594770261325</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.869825254727772</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>3.777574672665935</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.3979704104067991</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.05136928176242073</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007764283976379319</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4339435305919466</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.682970308426988</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.915927310844836</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>4.265206045459649</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.4340954132688637</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.05393959949954308</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007709482420676281</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4888336984715238</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.6665276540991414</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.079030483960793</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>4.586236187425129</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.4577534110366059</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.05574135185981888</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007674239895953526</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.5252234841351253</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.6570899537149941</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.192292538146205</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>4.414662020241451</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.4451213663953411</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.05476804664226975</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007692999331138283</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.5057507780380348</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.6620027568796942</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.131195971801162</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>3.769639545024916</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.3973805842897491</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.0513292160708243</v>
       </c>
       <c r="F24">
-        <v>2.170038921572853</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.000776518986042647</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4330543134508531</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.6832601620566265</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.913366072778189</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>3.081957967647895</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.3460067227681805</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.04809371187795186</v>
       </c>
       <c r="F25">
-        <v>1.757113814925077</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007845739844516454</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3565160061334609</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.7113777734362259</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.703562070618233</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_56/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.580510417913843</v>
+        <v>1.14588451084694</v>
       </c>
       <c r="C2">
-        <v>0.3081940552699933</v>
+        <v>0.2026105229323036</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04606800851744097</v>
+        <v>0.09905265697044818</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.0007907587201756681</v>
+        <v>0.002427098136627533</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3014221557304353</v>
+        <v>0.2110524580248097</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7361118952904349</v>
+        <v>1.16840010077054</v>
       </c>
       <c r="O2">
-        <v>1.567215353447494</v>
+        <v>2.566964032274484</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.242804359469687</v>
+        <v>1.048443709493881</v>
       </c>
       <c r="C3">
-        <v>0.2825367926508875</v>
+        <v>0.1940283572276797</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04489434767398848</v>
+        <v>0.09955546178018793</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.000795119183416481</v>
+        <v>0.002429989401759624</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2647120655713167</v>
+        <v>0.201969337403483</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7551938578665727</v>
+        <v>1.177748425787925</v>
       </c>
       <c r="O3">
-        <v>1.484537322077387</v>
+        <v>2.572591318806104</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.03622758098129</v>
+        <v>0.9888365736096034</v>
       </c>
       <c r="C4">
-        <v>0.2667562406677177</v>
+        <v>0.1887215868100611</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04426482986766977</v>
+        <v>0.09991664485843899</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.0007978831422866189</v>
+        <v>0.002431859756739937</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2424334713785612</v>
+        <v>0.1964989048526462</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7679947581130051</v>
+        <v>1.183992298864418</v>
       </c>
       <c r="O4">
-        <v>1.438087972405754</v>
+        <v>2.577941223246484</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.952204314432123</v>
+        <v>0.9646032566734277</v>
       </c>
       <c r="C5">
-        <v>0.2603173211100369</v>
+        <v>0.1865497991471017</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0440302096866958</v>
+        <v>0.1000770239804947</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.000799031706802517</v>
+        <v>0.002432645928773595</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2334139776659754</v>
+        <v>0.1942965388698497</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7734755539282929</v>
+        <v>1.186663572456069</v>
       </c>
       <c r="O5">
-        <v>1.420177434106563</v>
+        <v>2.5805969591203</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.93826085471693</v>
+        <v>0.9605828176650562</v>
       </c>
       <c r="C6">
-        <v>0.2592476068956699</v>
+        <v>0.1861886217879061</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0439925464255424</v>
+        <v>0.1001044517878462</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0007992237802879581</v>
+        <v>0.002432777923163419</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2319196892989197</v>
+        <v>0.1939324630490802</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.774401364289389</v>
+        <v>1.187114800092019</v>
       </c>
       <c r="O6">
-        <v>1.417262988204584</v>
+        <v>2.581066642991601</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.035093819164899</v>
+        <v>0.9885095218378979</v>
       </c>
       <c r="C7">
-        <v>0.2666694382533166</v>
+        <v>0.1886923345295912</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04426157825516874</v>
+        <v>0.09991875436096187</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0007978985416725708</v>
+        <v>0.00243187026190649</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2423115999745562</v>
+        <v>0.1964690940534837</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7680676145302456</v>
+        <v>1.184027810846217</v>
       </c>
       <c r="O7">
-        <v>1.437842389154042</v>
+        <v>2.577975114833777</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.463885388650283</v>
+        <v>1.112241596862361</v>
       </c>
       <c r="C8">
-        <v>0.2993520916846109</v>
+        <v>0.1996592124045407</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.04564380320695705</v>
+        <v>0.09921513781474545</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.0007922445076085598</v>
+        <v>0.002428075348938673</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.288706162282196</v>
+        <v>0.2078984999562152</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7424610807063132</v>
+        <v>1.171518875393105</v>
       </c>
       <c r="O8">
-        <v>1.537770752398643</v>
+        <v>2.568510558605482</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.31271509308425</v>
+        <v>1.356597209175732</v>
       </c>
       <c r="C9">
-        <v>0.3633042671666828</v>
+        <v>0.2208641878712569</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04912495365401348</v>
+        <v>0.09825152663344028</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0007818226946852083</v>
+        <v>0.002421384862525773</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3820798010770829</v>
+        <v>0.2311562442706361</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7012526709034432</v>
+        <v>1.150982716287736</v>
       </c>
       <c r="O9">
-        <v>1.771195654739671</v>
+        <v>2.565025558152456</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.943974691769256</v>
+        <v>1.537132542428026</v>
       </c>
       <c r="C10">
-        <v>0.4103242935104845</v>
+        <v>0.2362544131710536</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.05222276949966798</v>
+        <v>0.09779729583559948</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0007745396257605339</v>
+        <v>0.002416922766212748</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4526204934749529</v>
+        <v>0.2487588058665295</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6770605306689106</v>
+        <v>1.138323425326973</v>
       </c>
       <c r="O10">
-        <v>1.970334104833199</v>
+        <v>2.57171700245641</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.233478753585189</v>
+        <v>1.619474234484073</v>
       </c>
       <c r="C11">
-        <v>0.4317520449968413</v>
+        <v>0.2432136863365031</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.05376610892426115</v>
+        <v>0.09764576324360874</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0007712999321025098</v>
+        <v>0.002414990311196043</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4852479733354471</v>
+        <v>0.2568786761376884</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6675183050687323</v>
+        <v>1.133090574472334</v>
       </c>
       <c r="O11">
-        <v>2.068084916914216</v>
+        <v>2.576783689951299</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.343502935179004</v>
+        <v>1.650684823891481</v>
       </c>
       <c r="C12">
-        <v>0.4398743057861907</v>
+        <v>0.2458428459636934</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.05437131928105643</v>
+        <v>0.09759630471075198</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0007700830275826909</v>
+        <v>0.002414272468622592</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4976908832555438</v>
+        <v>0.2599695866691434</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6641282100876822</v>
+        <v>1.131184574888074</v>
       </c>
       <c r="O12">
-        <v>2.106235088367555</v>
+        <v>2.578994196649887</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.319788691735255</v>
+        <v>1.643961771432544</v>
       </c>
       <c r="C13">
-        <v>0.4381246306781748</v>
+        <v>0.2452768860604806</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.05424002721171561</v>
+        <v>0.09760660408196387</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007703446805677194</v>
+        <v>0.002414426450172535</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4950070130546322</v>
+        <v>0.2593031891701685</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.664848177602785</v>
+        <v>1.131591706013481</v>
       </c>
       <c r="O13">
-        <v>2.097966579559227</v>
+        <v>2.578505127944567</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.242522233599288</v>
+        <v>1.62204136354859</v>
       </c>
       <c r="C14">
-        <v>0.4324200916487371</v>
+        <v>0.2434301133316694</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.05381547451811031</v>
+        <v>0.09764153545803111</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0007711996222122883</v>
+        <v>0.002414930974906422</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4862698421947442</v>
+        <v>0.2571326450899392</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6672348460808593</v>
+        <v>1.132932252578591</v>
       </c>
       <c r="O14">
-        <v>2.071200199483769</v>
+        <v>2.576959694601214</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.195247599027653</v>
+        <v>1.608618291879679</v>
       </c>
       <c r="C15">
-        <v>0.428927023646537</v>
+        <v>0.2422981041821117</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.05355817622736225</v>
+        <v>0.09766396382831033</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.000771724567158953</v>
+        <v>0.002415241823883205</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4809297965170032</v>
+        <v>0.255805217796464</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6687262364170081</v>
+        <v>1.133763215487043</v>
       </c>
       <c r="O15">
-        <v>2.054955942176321</v>
+        <v>2.576051110731328</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.925106928422395</v>
+        <v>1.531755533040894</v>
       </c>
       <c r="C16">
-        <v>0.4089249190894577</v>
+        <v>0.2357987537523059</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.05212473291611097</v>
+        <v>0.0978083076160523</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0007747527693803463</v>
+        <v>0.002417051010459593</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4504998941240217</v>
+        <v>0.2482304087616996</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.677714662206867</v>
+        <v>1.138675982144129</v>
       </c>
       <c r="O16">
-        <v>1.964098693060237</v>
+        <v>2.571426670047231</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.760024149909555</v>
+        <v>1.484656873015354</v>
       </c>
       <c r="C17">
-        <v>0.3966657751608977</v>
+        <v>0.231800793391983</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.05128074501900315</v>
+        <v>0.09791097035594554</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.0007766288214916495</v>
+        <v>0.002418185780582134</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.43197698074556</v>
+        <v>0.2436122429091512</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6836123870328947</v>
+        <v>1.141824462942559</v>
       </c>
       <c r="O17">
-        <v>1.910266592599953</v>
+        <v>2.569108501744893</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.66528944600185</v>
+        <v>1.457587313104398</v>
       </c>
       <c r="C18">
-        <v>0.3896180587273648</v>
+        <v>0.2294973453644502</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05080783470629235</v>
+        <v>0.09797520543174087</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0007777148290593589</v>
+        <v>0.002418847639953535</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.421373088385451</v>
+        <v>0.2409665775339818</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6871414652775627</v>
+        <v>1.143684891517893</v>
       </c>
       <c r="O18">
-        <v>1.879971179264231</v>
+        <v>2.567965480577016</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.633249386437001</v>
+        <v>1.448425561310273</v>
       </c>
       <c r="C19">
-        <v>0.3872323364660417</v>
+        <v>0.2287167676447268</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05064982349674096</v>
+        <v>0.09799784504564713</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.0007780837458955057</v>
+        <v>0.002419073310833896</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4177910818616368</v>
+        <v>0.2400726201401682</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6883594770261325</v>
+        <v>1.144323305228902</v>
       </c>
       <c r="O19">
-        <v>1.869825254727772</v>
+        <v>2.567611131850697</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.777574672665935</v>
+        <v>1.489668510277909</v>
       </c>
       <c r="C20">
-        <v>0.3979704104067991</v>
+        <v>0.2322267906324669</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05136928176242073</v>
+        <v>0.0978995049790754</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0007764283976379319</v>
+        <v>0.002418064033903877</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4339435305919466</v>
+        <v>0.2441027598969754</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.682970308426988</v>
+        <v>1.141484178580264</v>
       </c>
       <c r="O20">
-        <v>1.915927310844836</v>
+        <v>2.569335569255202</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.265206045459649</v>
+        <v>1.628479126923708</v>
       </c>
       <c r="C21">
-        <v>0.4340954132688637</v>
+        <v>0.2439727238088096</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.05393959949954308</v>
+        <v>0.09763106021971879</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.0007709482420676281</v>
+        <v>0.00241478240608912</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4888336984715238</v>
+        <v>0.2577697503115957</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6665276540991414</v>
+        <v>1.132536451128153</v>
       </c>
       <c r="O21">
-        <v>2.079030483960793</v>
+        <v>2.577405696829459</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.586236187425129</v>
+        <v>1.719371654871225</v>
       </c>
       <c r="C22">
-        <v>0.4577534110366059</v>
+        <v>0.2516133590559662</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.05574135185981888</v>
+        <v>0.09750180086199123</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007674239895953526</v>
+        <v>0.002412718873960884</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5252234841351253</v>
+        <v>0.2667956830351272</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6570899537149941</v>
+        <v>1.127129034973343</v>
       </c>
       <c r="O22">
-        <v>2.192292538146205</v>
+        <v>2.584381650431993</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.414662020241451</v>
+        <v>1.670845339304492</v>
       </c>
       <c r="C23">
-        <v>0.4451213663953411</v>
+        <v>0.2475387535506854</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.05476804664226975</v>
+        <v>0.09756656297840394</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.0007692999331138283</v>
+        <v>0.002413812811484805</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5057507780380348</v>
+        <v>0.2619698157860739</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6620027568796942</v>
+        <v>1.12997479276352</v>
       </c>
       <c r="O23">
-        <v>2.131195971801162</v>
+        <v>2.580502421130518</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.769639545024916</v>
+        <v>1.487402723775176</v>
       </c>
       <c r="C24">
-        <v>0.3973805842897491</v>
+        <v>0.2320342127437129</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0513292160708243</v>
+        <v>0.09790467223860055</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.000776518986042647</v>
+        <v>0.002418119046151787</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4330543134508531</v>
+        <v>0.2438809679469927</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6832601620566265</v>
+        <v>1.141637864372939</v>
       </c>
       <c r="O24">
-        <v>1.913366072778189</v>
+        <v>2.569232321120609</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.081957967647895</v>
+        <v>1.29031280641783</v>
       </c>
       <c r="C25">
-        <v>0.3460067227681805</v>
+        <v>0.2151604845673347</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.04809371187795186</v>
+        <v>0.09846765214371445</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.0007845739844516454</v>
+        <v>0.002423114861765207</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3565160061334609</v>
+        <v>0.2247739621767835</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7113777734362259</v>
+        <v>1.156111378306115</v>
       </c>
       <c r="O25">
-        <v>1.703562070618233</v>
+        <v>2.564348081102423</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_56/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.14588451084694</v>
+        <v>2.580510417913899</v>
       </c>
       <c r="C2">
-        <v>0.2026105229323036</v>
+        <v>0.3081940552697517</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.09905265697044818</v>
+        <v>0.04606800851741077</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002427098136627533</v>
+        <v>0.0007907587201749514</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2110524580248097</v>
+        <v>0.3014221557303642</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.16840010077054</v>
+        <v>0.7361118952904846</v>
       </c>
       <c r="O2">
-        <v>2.566964032274484</v>
+        <v>1.567215353447494</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.048443709493881</v>
+        <v>2.242804359469744</v>
       </c>
       <c r="C3">
-        <v>0.1940283572276797</v>
+        <v>0.2825367926509728</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.09955546178018793</v>
+        <v>0.04489434767402223</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002429989401759624</v>
+        <v>0.0007951191834025698</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.201969337403483</v>
+        <v>0.2647120655714019</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.177748425787925</v>
+        <v>0.7551938578665869</v>
       </c>
       <c r="O3">
-        <v>2.572591318806104</v>
+        <v>1.484537322077472</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9888365736096034</v>
+        <v>2.036227580981233</v>
       </c>
       <c r="C4">
-        <v>0.1887215868100611</v>
+        <v>0.266756240667533</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.09991664485843899</v>
+        <v>0.04426482986765556</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002431859756739937</v>
+        <v>0.0007978831422668143</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1964989048526462</v>
+        <v>0.242433471378547</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.183992298864418</v>
+        <v>0.7679947581130051</v>
       </c>
       <c r="O4">
-        <v>2.577941223246484</v>
+        <v>1.438087972405725</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9646032566734277</v>
+        <v>1.952204314431867</v>
       </c>
       <c r="C5">
-        <v>0.1865497991471017</v>
+        <v>0.260317321110108</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1000770239804947</v>
+        <v>0.04403020968668336</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002432645928773595</v>
+        <v>0.0007990317067813215</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1942965388698497</v>
+        <v>0.233413977666018</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.186663572456069</v>
+        <v>0.7734755539283498</v>
       </c>
       <c r="O5">
-        <v>2.5805969591203</v>
+        <v>1.420177434106648</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9605828176650562</v>
+        <v>1.938260854716901</v>
       </c>
       <c r="C6">
-        <v>0.1861886217879061</v>
+        <v>0.2592476068956842</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1001044517878462</v>
+        <v>0.0439925464255122</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002432777923163419</v>
+        <v>0.0007992237803458007</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1939324630490802</v>
+        <v>0.2319196892990902</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.187114800092019</v>
+        <v>0.7744013642893819</v>
       </c>
       <c r="O6">
-        <v>2.581066642991601</v>
+        <v>1.417262988204584</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9885095218378979</v>
+        <v>2.035093819164842</v>
       </c>
       <c r="C7">
-        <v>0.1886923345295912</v>
+        <v>0.2666694382534587</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.09991875436096187</v>
+        <v>0.04426157825518295</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.00243187026190649</v>
+        <v>0.0007978985416502473</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1964690940534837</v>
+        <v>0.2423115999744994</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.184027810846217</v>
+        <v>0.7680676145302314</v>
       </c>
       <c r="O7">
-        <v>2.577975114833777</v>
+        <v>1.437842389153985</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.112241596862361</v>
+        <v>2.463885388650283</v>
       </c>
       <c r="C8">
-        <v>0.1996592124045407</v>
+        <v>0.2993520916839714</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.09921513781474545</v>
+        <v>0.04564380320697126</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002428075348938673</v>
+        <v>0.000792244507665998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2078984999562152</v>
+        <v>0.2887061622821534</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.171518875393105</v>
+        <v>0.7424610807062351</v>
       </c>
       <c r="O8">
-        <v>2.568510558605482</v>
+        <v>1.537770752398586</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.356597209175732</v>
+        <v>3.312715093084194</v>
       </c>
       <c r="C9">
-        <v>0.2208641878712569</v>
+        <v>0.3633042671661997</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.09825152663344028</v>
+        <v>0.04912495365401348</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002421384862525773</v>
+        <v>0.0007818226947394202</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2311562442706361</v>
+        <v>0.3820798010770261</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.150982716287736</v>
+        <v>0.7012526709034574</v>
       </c>
       <c r="O9">
-        <v>2.565025558152456</v>
+        <v>1.771195654739699</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.537132542428026</v>
+        <v>3.943974691769313</v>
       </c>
       <c r="C10">
-        <v>0.2362544131710536</v>
+        <v>0.4103242935104845</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.09779729583559948</v>
+        <v>0.05222276949964844</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002416922766212748</v>
+        <v>0.0007745396257885989</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2487588058665295</v>
+        <v>0.4526204934749813</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.138323425326973</v>
+        <v>0.6770605306689106</v>
       </c>
       <c r="O10">
-        <v>2.57171700245641</v>
+        <v>1.970334104833199</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.619474234484073</v>
+        <v>4.233478753585189</v>
       </c>
       <c r="C11">
-        <v>0.2432136863365031</v>
+        <v>0.4317520449971539</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.09764576324360874</v>
+        <v>0.05376610892425404</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002414990311196043</v>
+        <v>0.0007712999321311535</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2568786761376884</v>
+        <v>0.4852479733353903</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.133090574472334</v>
+        <v>0.6675183050687323</v>
       </c>
       <c r="O11">
-        <v>2.576783689951299</v>
+        <v>2.068084916914188</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.650684823891481</v>
+        <v>4.343502935178776</v>
       </c>
       <c r="C12">
-        <v>0.2458428459636934</v>
+        <v>0.4398743057859917</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.09759630471075198</v>
+        <v>0.05437131928104222</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.002414272468622592</v>
+        <v>0.0007700830275531159</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2599695866691434</v>
+        <v>0.4976908832554727</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.131184574888074</v>
+        <v>0.664128210087668</v>
       </c>
       <c r="O12">
-        <v>2.578994196649887</v>
+        <v>2.106235088367555</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.643961771432544</v>
+        <v>4.319788691735312</v>
       </c>
       <c r="C13">
-        <v>0.2452768860604806</v>
+        <v>0.4381246306781748</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.09760660408196387</v>
+        <v>0.05424002721171561</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002414426450172535</v>
+        <v>0.0007703446805111952</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2593031891701685</v>
+        <v>0.4950070130547033</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.131591706013481</v>
+        <v>0.6648481776027353</v>
       </c>
       <c r="O13">
-        <v>2.578505127944567</v>
+        <v>2.09796657955917</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.62204136354859</v>
+        <v>4.242522233599232</v>
       </c>
       <c r="C14">
-        <v>0.2434301133316694</v>
+        <v>0.4324200916484813</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.09764153545803111</v>
+        <v>0.05381547451812807</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002414930974906422</v>
+        <v>0.00077119962224221</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2571326450899392</v>
+        <v>0.4862698421948295</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.132932252578591</v>
+        <v>0.6672348460808664</v>
       </c>
       <c r="O14">
-        <v>2.576959694601214</v>
+        <v>2.071200199483712</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.608618291879679</v>
+        <v>4.195247599027653</v>
       </c>
       <c r="C15">
-        <v>0.2422981041821117</v>
+        <v>0.4289270236464233</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.09766396382831033</v>
+        <v>0.05355817622734804</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.002415241823883205</v>
+        <v>0.0007717245672158692</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.255805217796464</v>
+        <v>0.4809297965170032</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.133763215487043</v>
+        <v>0.6687262364170223</v>
       </c>
       <c r="O15">
-        <v>2.576051110731328</v>
+        <v>2.054955942176264</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.531755533040894</v>
+        <v>3.925106928422281</v>
       </c>
       <c r="C16">
-        <v>0.2357987537523059</v>
+        <v>0.4089249190895714</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0978083076160523</v>
+        <v>0.05212473291611097</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002417051010459593</v>
+        <v>0.0007747527693529791</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2482304087616996</v>
+        <v>0.4504998941240359</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.138675982144129</v>
+        <v>0.677714662206867</v>
       </c>
       <c r="O16">
-        <v>2.571426670047231</v>
+        <v>1.964098693060237</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.484656873015354</v>
+        <v>3.760024149909611</v>
       </c>
       <c r="C17">
-        <v>0.231800793391983</v>
+        <v>0.3966657751608125</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.09791097035594554</v>
+        <v>0.05128074501901914</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.002418185780582134</v>
+        <v>0.0007766288215190219</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2436122429091512</v>
+        <v>0.4319769807455458</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.141824462942559</v>
+        <v>0.6836123870328308</v>
       </c>
       <c r="O17">
-        <v>2.569108501744893</v>
+        <v>1.910266592599896</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.457587313104398</v>
+        <v>3.66528944600185</v>
       </c>
       <c r="C18">
-        <v>0.2294973453644502</v>
+        <v>0.389618058727649</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.09797520543174087</v>
+        <v>0.05080783470629058</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002418847639953535</v>
+        <v>0.0007777148290604658</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2409665775339818</v>
+        <v>0.4213730883854936</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.143684891517893</v>
+        <v>0.6871414652775556</v>
       </c>
       <c r="O18">
-        <v>2.567965480577016</v>
+        <v>1.879971179264146</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.448425561310273</v>
+        <v>3.633249386437001</v>
       </c>
       <c r="C19">
-        <v>0.2287167676447268</v>
+        <v>0.3872323364660417</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.09799784504564713</v>
+        <v>0.05064982349675162</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.002419073310833896</v>
+        <v>0.0007780837458677645</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2400726201401682</v>
+        <v>0.4177910818615658</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.144323305228902</v>
+        <v>0.6883594770261396</v>
       </c>
       <c r="O19">
-        <v>2.567611131850697</v>
+        <v>1.869825254727687</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.489668510277909</v>
+        <v>3.777574672665878</v>
       </c>
       <c r="C20">
-        <v>0.2322267906324669</v>
+        <v>0.3979704104070265</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0978995049790754</v>
+        <v>0.05136928176241895</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002418064033903877</v>
+        <v>0.00077642839766654</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2441027598969754</v>
+        <v>0.4339435305921029</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.141484178580264</v>
+        <v>0.682970308426988</v>
       </c>
       <c r="O20">
-        <v>2.569335569255202</v>
+        <v>1.915927310844893</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.628479126923708</v>
+        <v>4.265206045459706</v>
       </c>
       <c r="C21">
-        <v>0.2439727238088096</v>
+        <v>0.4340954132690911</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.09763106021971879</v>
+        <v>0.05393959949954663</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.00241478240608912</v>
+        <v>0.0007709482420391106</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2577697503115957</v>
+        <v>0.4888336984715096</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.132536451128153</v>
+        <v>0.6665276540990845</v>
       </c>
       <c r="O21">
-        <v>2.577405696829459</v>
+        <v>2.079030483960793</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.719371654871225</v>
+        <v>4.586236187425015</v>
       </c>
       <c r="C22">
-        <v>0.2516133590559662</v>
+        <v>0.4577534110365775</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.09750180086199123</v>
+        <v>0.05574135185983309</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.002412718873960884</v>
+        <v>0.0007674239895953659</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2667956830351272</v>
+        <v>0.5252234841352674</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.127129034973343</v>
+        <v>0.657089953714987</v>
       </c>
       <c r="O22">
-        <v>2.584381650431993</v>
+        <v>2.192292538146262</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.670845339304492</v>
+        <v>4.414662020241451</v>
       </c>
       <c r="C23">
-        <v>0.2475387535506854</v>
+        <v>0.4451213663953411</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.09756656297840394</v>
+        <v>0.0547680466422662</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002413812811484805</v>
+        <v>0.000769299933113518</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2619698157860739</v>
+        <v>0.5057507780379638</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.12997479276352</v>
+        <v>0.6620027568796942</v>
       </c>
       <c r="O23">
-        <v>2.580502421130518</v>
+        <v>2.131195971801134</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.487402723775176</v>
+        <v>3.769639545024916</v>
       </c>
       <c r="C24">
-        <v>0.2320342127437129</v>
+        <v>0.3973805842895501</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.09790467223860055</v>
+        <v>0.05132921607083851</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002418119046151787</v>
+        <v>0.0007765189860427647</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2438809679469927</v>
+        <v>0.4330543134508815</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.141637864372939</v>
+        <v>0.6832601620566763</v>
       </c>
       <c r="O24">
-        <v>2.569232321120609</v>
+        <v>1.913366072778075</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.29031280641783</v>
+        <v>3.081957967647952</v>
       </c>
       <c r="C25">
-        <v>0.2151604845673347</v>
+        <v>0.346006722767811</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.09846765214371445</v>
+        <v>0.04809371187792344</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002423114861765207</v>
+        <v>0.0007845739844795281</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2247739621767835</v>
+        <v>0.3565160061334183</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.156111378306115</v>
+        <v>0.711377773436304</v>
       </c>
       <c r="O25">
-        <v>2.564348081102423</v>
+        <v>1.70356207061829</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_56/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.580510417913899</v>
+        <v>2.364876447201198</v>
       </c>
       <c r="C2">
-        <v>0.3081940552697517</v>
+        <v>0.7493295009091412</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04606800851741077</v>
+        <v>0.2419234358142788</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007907587201749514</v>
+        <v>0.5308731614901063</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0008540218610659789</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.001909886360509816</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3789433656122156</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2774930832582498</v>
       </c>
       <c r="L2">
-        <v>0.3014221557303642</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7361118952904846</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.567215353447494</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.9616419750580008</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.242804359469744</v>
+        <v>2.060958916937409</v>
       </c>
       <c r="C3">
-        <v>0.2825367926509728</v>
+        <v>0.656142371394111</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04489434767402223</v>
+        <v>0.2136793100573016</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0007951191834025698</v>
+        <v>0.4898058329300738</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0001875267489239718</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.000893733437134614</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3657486909293937</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2780400984509264</v>
       </c>
       <c r="L3">
-        <v>0.2647120655714019</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7551938578665869</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.484537322077472</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.836725181433529</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.036227580981233</v>
+        <v>1.874168491582083</v>
       </c>
       <c r="C4">
-        <v>0.266756240667533</v>
+        <v>0.5993492650134442</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04426482986765556</v>
+        <v>0.1963625228581236</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0007978831422668143</v>
+        <v>0.4650846111930491</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.482738105806902E-05</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0005561388621462271</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3579778876538029</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2786586969067564</v>
       </c>
       <c r="L4">
-        <v>0.242433471378547</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7679947581130051</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.438087972405725</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.7601833859315832</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.952204314431867</v>
+        <v>1.797872617653525</v>
       </c>
       <c r="C5">
-        <v>0.260317321110108</v>
+        <v>0.5771366425008466</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04403020968668336</v>
+        <v>0.1892411032456103</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0007990317067813215</v>
+        <v>0.4535251916448431</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6.454275758294159E-08</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.000548748276492983</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3540575499250167</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2781300387881132</v>
       </c>
       <c r="L5">
-        <v>0.233413977666018</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7734755539283498</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.420177434106648</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.7291663448306736</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.938260854716901</v>
+        <v>1.785059650418304</v>
       </c>
       <c r="C6">
-        <v>0.2592476068956842</v>
+        <v>0.5744810710129968</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0439925464255122</v>
+        <v>0.1879774512660788</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0007992237803458007</v>
+        <v>0.4496672817984404</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>9.175617123879931E-07</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0006361453343437518</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.352398497752759</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2770161376058695</v>
       </c>
       <c r="L6">
-        <v>0.2319196892990902</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7744013642893819</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.417262988204584</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.724196028997909</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.035093819164842</v>
+        <v>1.872755189832816</v>
       </c>
       <c r="C7">
-        <v>0.2666694382534587</v>
+        <v>0.601863092141798</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04426157825518295</v>
+        <v>0.1960445725136282</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.0007978985416502473</v>
+        <v>0.4596072377699016</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.405372768514823E-05</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0007706919049486061</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3551581568640643</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2758364814936343</v>
       </c>
       <c r="L7">
-        <v>0.2423115999744994</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7680676145302314</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.437842389153985</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.7602537622050107</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.463885388650283</v>
+        <v>2.259592235190951</v>
       </c>
       <c r="C8">
-        <v>0.2993520916839714</v>
+        <v>0.7208619443952387</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.04564380320697126</v>
+        <v>0.2318814465670442</v>
       </c>
       <c r="F8">
-        <v>1.39074283177348</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.000792244507665998</v>
+        <v>0.5095400874170934</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0005699629348709934</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.00174696976130484</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3706651369605822</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2739082999213274</v>
       </c>
       <c r="L8">
-        <v>0.2887061622821534</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7424610807062351</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.537770752398586</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.919181716125955</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.312715093084194</v>
+        <v>3.01828919493704</v>
       </c>
       <c r="C9">
-        <v>0.3633042671661997</v>
+        <v>0.9531573596255214</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04912495365401348</v>
+        <v>0.3029832623284676</v>
       </c>
       <c r="F9">
-        <v>1.895061171842812</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.0007818226947394202</v>
+        <v>0.621730619701097</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.003726773819978435</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.00586719381087164</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.4089969255142165</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2776756115793333</v>
       </c>
       <c r="L9">
-        <v>0.3820798010770261</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7012526709034574</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.771195654739699</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.231756266384323</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.943974691769313</v>
+        <v>3.595201742744621</v>
       </c>
       <c r="C10">
-        <v>0.4103242935104845</v>
+        <v>1.127774709922221</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.05222276949964844</v>
+        <v>0.3297489668828675</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.0007745396257885989</v>
+        <v>0.6782513380784536</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.00740088276904638</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0107792705095644</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.4242289907299579</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.2689036646903595</v>
       </c>
       <c r="L10">
-        <v>0.4526204934749813</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6770605306689106</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.970334104833199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.425493953888591</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.233478753585189</v>
+        <v>4.026903534435633</v>
       </c>
       <c r="C11">
-        <v>0.4317520449971539</v>
+        <v>1.20508641712604</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.05376610892425404</v>
+        <v>0.164300361737908</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007712999321311535</v>
+        <v>0.4810183417152984</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02517741245911154</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01290714628513001</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3170194082202187</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.1722313877157156</v>
       </c>
       <c r="L11">
-        <v>0.4852479733353903</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6675183050687323</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.068084916914188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.198879604880133</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.343502935178776</v>
+        <v>4.279461514996399</v>
       </c>
       <c r="C12">
-        <v>0.4398743057859917</v>
+        <v>1.229216250252932</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.05437131928104222</v>
+        <v>0.08390636732846701</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007700830275531159</v>
+        <v>0.3366414637179957</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06297443470661079</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01335012677852276</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2398363113631916</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.1163007296967802</v>
       </c>
       <c r="L12">
-        <v>0.4976908832554727</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.664128210087668</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.106235088367555</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.985592597565315</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.319788691735312</v>
+        <v>4.405392787337007</v>
       </c>
       <c r="C13">
-        <v>0.4381246306781748</v>
+        <v>1.218027055854805</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.05424002721171561</v>
+        <v>0.06290436549664769</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.0007703446805111952</v>
+        <v>0.2157770370730532</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1176957183479743</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01273883918183483</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1766223603872135</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.08327423184461402</v>
       </c>
       <c r="L13">
-        <v>0.4950070130547033</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6648481776027353</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.09796657955917</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.7724903580419564</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.242522233599232</v>
+        <v>4.435986835760104</v>
       </c>
       <c r="C14">
-        <v>0.4324200916484813</v>
+        <v>1.195246813383505</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.05381547451812807</v>
+        <v>0.08310829470158509</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.00077119962224221</v>
+        <v>0.144811289114962</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1663149854180972</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01194074912099108</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.140033234502134</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.07269436722973888</v>
       </c>
       <c r="L14">
-        <v>0.4862698421948295</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6672348460808664</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.071200199483712</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.6276347150464261</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.195247599027653</v>
+        <v>4.414628673090419</v>
       </c>
       <c r="C15">
-        <v>0.4289270236464233</v>
+        <v>1.183316112453952</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.05355817622734804</v>
+        <v>0.09220502660242857</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0007717245672158692</v>
+        <v>0.1284400783403612</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1785477534394033</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01160915525749484</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1320712218935824</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.0723369259891086</v>
       </c>
       <c r="L15">
-        <v>0.4809297965170032</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6687262364170223</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.054955942176264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.5903989405555947</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.925106928422281</v>
+        <v>4.13394043107013</v>
       </c>
       <c r="C16">
-        <v>0.4089249190895714</v>
+        <v>1.111821634040496</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.05212473291611097</v>
+        <v>0.0859764357050814</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0007747527693529791</v>
+        <v>0.127878450511119</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1646031140560353</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.009522170914704198</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1374260161090604</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.08099698247423978</v>
       </c>
       <c r="L16">
-        <v>0.4504998941240359</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.677714662206867</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.964098693060237</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.5581154723673976</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.760024149909611</v>
+        <v>3.903308668303566</v>
       </c>
       <c r="C17">
-        <v>0.3966657751608125</v>
+        <v>1.069363749660141</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.05128074501901914</v>
+        <v>0.06473730733640082</v>
       </c>
       <c r="F17">
-        <v>2.164227570872086</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007766288215190219</v>
+        <v>0.1624155993536647</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1262723744493286</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.008427929729630357</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1597650585565233</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.0916053181952492</v>
       </c>
       <c r="L17">
-        <v>0.4319769807455458</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6836123870328308</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.910266592599896</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.6072532396558969</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.66528944600185</v>
+        <v>3.692891025720144</v>
       </c>
       <c r="C18">
-        <v>0.389618058727649</v>
+        <v>1.044542952443692</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05080783470629058</v>
+        <v>0.05887362799118456</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007777148290604658</v>
+        <v>0.2460752202483718</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07350708551764029</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.007758800284697998</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2065708008403888</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1150510193565246</v>
       </c>
       <c r="L18">
-        <v>0.4213730883854936</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6871414652775556</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.879971179264146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.7420766928500981</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.633249386437001</v>
+        <v>3.517320751458612</v>
       </c>
       <c r="C19">
-        <v>0.3872323364660417</v>
+        <v>1.041743140191159</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05064982349675162</v>
+        <v>0.111790134586748</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.0007780837458677645</v>
+        <v>0.377250809579678</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02907822086437051</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.007990967155333095</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2760571789010129</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1596129263144981</v>
       </c>
       <c r="L19">
-        <v>0.4177910818615658</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6883594770261396</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.869825254727687</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.9538253741619158</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.777574672665878</v>
+        <v>3.443034486090482</v>
       </c>
       <c r="C20">
-        <v>0.3979704104070265</v>
+        <v>1.090704727335634</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05136928176241895</v>
+        <v>0.3208782012576208</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.00077642839766654</v>
+        <v>0.6455654388226151</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.006283524760664072</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.009974807347838066</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.4110383839548604</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.2621525740654995</v>
       </c>
       <c r="L20">
-        <v>0.4339435305921029</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.682970308426988</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.915927310844893</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.374487442136257</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.265206045459706</v>
+        <v>3.85776856335184</v>
       </c>
       <c r="C21">
-        <v>0.4340954132690911</v>
+        <v>1.225663418349541</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.05393959949954663</v>
+        <v>0.3819924318805263</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007709482420391106</v>
+        <v>0.7361849685638759</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.009944588458289027</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01447272803784916</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.4469230362971643</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.2766981626302965</v>
       </c>
       <c r="L21">
-        <v>0.4888336984715096</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6665276540990845</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.079030483960793</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.582498166016805</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.586236187425015</v>
+        <v>4.1395337655199</v>
       </c>
       <c r="C22">
-        <v>0.4577534110365775</v>
+        <v>1.310570103434884</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.05574135185983309</v>
+        <v>0.409236910795606</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0007674239895953659</v>
+        <v>0.7896945076459616</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.01262256709868387</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01758250337057721</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.4674968516148112</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.2841605367420605</v>
       </c>
       <c r="L22">
-        <v>0.5252234841352674</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.657089953714987</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.192292538146262</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.699080767691456</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.414662020241451</v>
+        <v>3.98958354804455</v>
       </c>
       <c r="C23">
-        <v>0.4451213663953411</v>
+        <v>1.261703090657818</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.0547680466422662</v>
+        <v>0.3949429328266589</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.000769299933113518</v>
+        <v>0.7673039250561544</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.01116644137402803</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01564123257201011</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.4596755210839945</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.2833472782441184</v>
       </c>
       <c r="L23">
-        <v>0.5057507780379638</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6620027568796942</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.131195971801134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.636206739021262</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.769639545024916</v>
+        <v>3.422242308648833</v>
       </c>
       <c r="C24">
-        <v>0.3973805842895501</v>
+        <v>1.083964997704811</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05132921607083851</v>
+        <v>0.340843505357121</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0007765189860427647</v>
+        <v>0.6751247810651648</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.00638443318919385</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.009588068566769081</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.4263251911039276</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2763278616748579</v>
       </c>
       <c r="L24">
-        <v>0.4330543134508815</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6832601620566763</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.913366072778075</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.4002831435552</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.081957967647952</v>
+        <v>2.812238489208028</v>
       </c>
       <c r="C25">
-        <v>0.346006722767811</v>
+        <v>0.8949912748592226</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.04809371187792344</v>
+        <v>0.2832626568834229</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.0007845739844795281</v>
+        <v>0.5811224380739333</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.002617357440781509</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.004797490818775785</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3932889977068328</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2713345574692525</v>
       </c>
       <c r="L25">
-        <v>0.3565160061334183</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.711377773436304</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.70356207061829</v>
+        <v>1.147816843147595</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_56/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.364876447201198</v>
+        <v>2.362025807716577</v>
       </c>
       <c r="C2">
-        <v>0.7493295009091412</v>
+        <v>0.787914272708889</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2419234358142788</v>
+        <v>0.2379317031308759</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.5308731614901063</v>
+        <v>0.4263896167495602</v>
       </c>
       <c r="H2">
-        <v>0.0008540218610659789</v>
+        <v>0.0008264435529654612</v>
       </c>
       <c r="I2">
-        <v>0.001909886360509816</v>
+        <v>0.002091741895696053</v>
       </c>
       <c r="J2">
-        <v>0.3789433656122156</v>
+        <v>0.3776068964171486</v>
       </c>
       <c r="K2">
-        <v>0.2774930832582498</v>
+        <v>0.2308962753953487</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1366240136242887</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.04985085229933084</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9616419750580008</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.970275192450714</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.060958916937409</v>
+        <v>2.061354520180032</v>
       </c>
       <c r="C3">
-        <v>0.656142371394111</v>
+        <v>0.6848222494776053</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2136793100573016</v>
+        <v>0.2113560913180379</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.4898058329300738</v>
+        <v>0.4008886915141119</v>
       </c>
       <c r="H3">
-        <v>0.0001875267489239718</v>
+        <v>0.0002001169338594622</v>
       </c>
       <c r="I3">
-        <v>0.000893733437134614</v>
+        <v>0.0011490012683395</v>
       </c>
       <c r="J3">
-        <v>0.3657486909293937</v>
+        <v>0.3690930377512274</v>
       </c>
       <c r="K3">
-        <v>0.2780400984509264</v>
+        <v>0.2374209112382104</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1427717305094518</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.04933801704151364</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.836725181433529</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.8439621679230456</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.874168491582083</v>
+        <v>1.876375108807338</v>
       </c>
       <c r="C4">
-        <v>0.5993492650134442</v>
+        <v>0.6220649746566664</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1963625228581236</v>
+        <v>0.1950336912991908</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.4650846111930491</v>
+        <v>0.3856374443137724</v>
       </c>
       <c r="H4">
-        <v>1.482738105806902E-05</v>
+        <v>2.385559726625353E-05</v>
       </c>
       <c r="I4">
-        <v>0.0005561388621462271</v>
+        <v>0.0007870557505404996</v>
       </c>
       <c r="J4">
-        <v>0.3579778876538029</v>
+        <v>0.3638575551546523</v>
       </c>
       <c r="K4">
-        <v>0.2786586969067564</v>
+        <v>0.24161484791167</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1466466916404379</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.04958395654144709</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.7601833859315832</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.7665300739996823</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.797872617653525</v>
+        <v>1.800788425394643</v>
       </c>
       <c r="C5">
-        <v>0.5771366425008466</v>
+        <v>0.5973731231686656</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1892411032456103</v>
+        <v>0.1883194757072033</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.4535251916448431</v>
+        <v>0.3782381682781022</v>
       </c>
       <c r="H5">
-        <v>6.454275758294159E-08</v>
+        <v>1.042848783550099E-06</v>
       </c>
       <c r="I5">
-        <v>0.000548748276492983</v>
+        <v>0.0007659143736704621</v>
       </c>
       <c r="J5">
-        <v>0.3540575499250167</v>
+        <v>0.361029414433176</v>
       </c>
       <c r="K5">
-        <v>0.2781300387881132</v>
+        <v>0.2427286154718047</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1479242660556892</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.04966696026269979</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7291663448306736</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.7351252140864943</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.785059650418304</v>
+        <v>1.788105255521259</v>
       </c>
       <c r="C6">
-        <v>0.5744810710129968</v>
+        <v>0.594210740625698</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1879774512660788</v>
+        <v>0.1871335840553421</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.4496672817984404</v>
+        <v>0.3754638995626891</v>
       </c>
       <c r="H6">
-        <v>9.175617123879931E-07</v>
+        <v>1.293429821025427E-07</v>
       </c>
       <c r="I6">
-        <v>0.0006361453343437518</v>
+        <v>0.0008666251252407164</v>
       </c>
       <c r="J6">
-        <v>0.352398497752759</v>
+        <v>0.3597179097926926</v>
       </c>
       <c r="K6">
-        <v>0.2770161376058695</v>
+        <v>0.2421400253517731</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1477416673031691</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.04949984494404625</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.724196028997909</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.7300676154791574</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.872755189832816</v>
+        <v>1.875048968791589</v>
       </c>
       <c r="C7">
-        <v>0.601863092141798</v>
+        <v>0.6230758408788972</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1960445725136282</v>
+        <v>0.1947715964536485</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.4596072377699016</v>
+        <v>0.3829897090871128</v>
       </c>
       <c r="H7">
-        <v>1.405372768514823E-05</v>
+        <v>2.259555580530481E-05</v>
       </c>
       <c r="I7">
-        <v>0.0007706919049486061</v>
+        <v>0.001042443687693684</v>
       </c>
       <c r="J7">
-        <v>0.3551581568640643</v>
+        <v>0.3557282085071307</v>
       </c>
       <c r="K7">
-        <v>0.2758364814936343</v>
+        <v>0.2385563847914121</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1451316874665345</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.04879693992352152</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.7602537622050107</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.7663228639259074</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.259592235190951</v>
+        <v>2.258082201284935</v>
       </c>
       <c r="C8">
-        <v>0.7208619443952387</v>
+        <v>0.7516017262259425</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2318814465670442</v>
+        <v>0.2285893986906018</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.5095400874170934</v>
+        <v>0.4176041671044288</v>
       </c>
       <c r="H8">
-        <v>0.0005699629348709934</v>
+        <v>0.0005572759608736266</v>
       </c>
       <c r="I8">
-        <v>0.00174696976130484</v>
+        <v>0.002011380875111435</v>
       </c>
       <c r="J8">
-        <v>0.3706651369605822</v>
+        <v>0.3528445255255264</v>
       </c>
       <c r="K8">
-        <v>0.2739082999213274</v>
+        <v>0.2272997858557559</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1360741600556459</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.04781947726019986</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.919181716125955</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.926545967556244</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.01828919493704</v>
+        <v>3.007392197313038</v>
       </c>
       <c r="C9">
-        <v>0.9531573596255214</v>
+        <v>1.008300852392722</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3029832623284676</v>
+        <v>0.2953118274609281</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.621730619701097</v>
+        <v>0.4908221797464023</v>
       </c>
       <c r="H9">
-        <v>0.003726773819978435</v>
+        <v>0.003421359567489679</v>
       </c>
       <c r="I9">
-        <v>0.00586719381087164</v>
+        <v>0.005431102396358689</v>
       </c>
       <c r="J9">
-        <v>0.4089969255142165</v>
+        <v>0.3717713309975466</v>
       </c>
       <c r="K9">
-        <v>0.2776756115793333</v>
+        <v>0.2140381159779459</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1224991273968499</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.05250732441094819</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.231756266384323</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.242189015945954</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.595201742744621</v>
+        <v>3.576579911863121</v>
       </c>
       <c r="C10">
-        <v>1.127774709922221</v>
+        <v>1.191027434916919</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3297489668828675</v>
+        <v>0.3192828728191159</v>
       </c>
       <c r="F10">
         <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.6782513380784536</v>
+        <v>0.5365557834119699</v>
       </c>
       <c r="H10">
-        <v>0.00740088276904638</v>
+        <v>0.006684600477774083</v>
       </c>
       <c r="I10">
-        <v>0.0107792705095644</v>
+        <v>0.009349313390112357</v>
       </c>
       <c r="J10">
-        <v>0.4242289907299579</v>
+        <v>0.3446604015015993</v>
       </c>
       <c r="K10">
-        <v>0.2689036646903595</v>
+        <v>0.1925563199532441</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1084799417207645</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.05365744294524077</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.425493953888591</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.43593459390047</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.026903534435633</v>
+        <v>4.008099286937636</v>
       </c>
       <c r="C11">
-        <v>1.20508641712604</v>
+        <v>1.234311115524292</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.164300361737908</v>
+        <v>0.1562282696576567</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.4810183417152984</v>
+        <v>0.4089965412743766</v>
       </c>
       <c r="H11">
-        <v>0.02517741245911154</v>
+        <v>0.02439513217714051</v>
       </c>
       <c r="I11">
-        <v>0.01290714628513001</v>
+        <v>0.01113199507376805</v>
       </c>
       <c r="J11">
-        <v>0.3170194082202187</v>
+        <v>0.2223403013246781</v>
       </c>
       <c r="K11">
-        <v>0.1722313877157156</v>
+        <v>0.12410191688606</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.0830666912461977</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.02927347729200847</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.198879604880133</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.202729898898212</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.279461514996399</v>
+        <v>4.261971394887496</v>
       </c>
       <c r="C12">
-        <v>1.229216250252932</v>
+        <v>1.232365543937931</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.08390636732846701</v>
+        <v>0.07720817450035788</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.3366414637179957</v>
+        <v>0.3061461774802723</v>
       </c>
       <c r="H12">
-        <v>0.06297443470661079</v>
+        <v>0.06222035195621345</v>
       </c>
       <c r="I12">
-        <v>0.01335012677852276</v>
+        <v>0.01144236944239729</v>
       </c>
       <c r="J12">
-        <v>0.2398363113631916</v>
+        <v>0.1645689308397635</v>
       </c>
       <c r="K12">
-        <v>0.1163007296967802</v>
+        <v>0.09142891099536943</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.07252245197757068</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.01586427996625872</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.985592597565315</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.9855567642596057</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.405392787337007</v>
+        <v>4.390440920682863</v>
       </c>
       <c r="C13">
-        <v>1.218027055854805</v>
+        <v>1.202855400715237</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.06290436549664769</v>
+        <v>0.05712859689994954</v>
       </c>
       <c r="F13">
         <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.2157770370730532</v>
+        <v>0.2085646641515737</v>
       </c>
       <c r="H13">
-        <v>0.1176957183479743</v>
+        <v>0.1170444592525683</v>
       </c>
       <c r="I13">
-        <v>0.01273883918183483</v>
+        <v>0.01097895796079307</v>
       </c>
       <c r="J13">
-        <v>0.1766223603872135</v>
+        <v>0.1396497470646167</v>
       </c>
       <c r="K13">
-        <v>0.08327423184461402</v>
+        <v>0.07768225280094088</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.06902899043005939</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.008700978175188556</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.7724903580419564</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.7704603846860891</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.435986835760104</v>
+        <v>4.423329931916044</v>
       </c>
       <c r="C14">
-        <v>1.195246813383505</v>
+        <v>1.170517619935197</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.08310829470158509</v>
+        <v>0.07777852809992325</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.144811289114962</v>
+        <v>0.1463270884300627</v>
       </c>
       <c r="H14">
-        <v>0.1663149854180972</v>
+        <v>0.1657569868722533</v>
       </c>
       <c r="I14">
-        <v>0.01194074912099108</v>
+        <v>0.01041180919164386</v>
       </c>
       <c r="J14">
-        <v>0.140033234502134</v>
+        <v>0.1314813000519557</v>
       </c>
       <c r="K14">
-        <v>0.07269436722973888</v>
+        <v>0.07604621201769368</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.06915016536536545</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.006716995857323216</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.6276347150464261</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6249142928100753</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.414628673090419</v>
+        <v>4.40281825049766</v>
       </c>
       <c r="C15">
-        <v>1.183316112453952</v>
+        <v>1.157581209636419</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.09220502660242857</v>
+        <v>0.08706488315689143</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.1284400783403612</v>
+        <v>0.1305567617196601</v>
       </c>
       <c r="H15">
-        <v>0.1785477534394033</v>
+        <v>0.1780297547741583</v>
       </c>
       <c r="I15">
-        <v>0.01160915525749484</v>
+        <v>0.01021865331832128</v>
       </c>
       <c r="J15">
-        <v>0.1320712218935824</v>
+        <v>0.1319350413522251</v>
       </c>
       <c r="K15">
-        <v>0.0723369259891086</v>
+        <v>0.07709860950841563</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.06955534928045459</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.006752186677013217</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.5903989405555947</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.5877028457396136</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.13394043107013</v>
+        <v>4.124789580040215</v>
       </c>
       <c r="C16">
-        <v>1.111821634040496</v>
+        <v>1.098331664602824</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0859764357050814</v>
+        <v>0.08204536426814002</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.127878450511119</v>
+        <v>0.1210894320447835</v>
       </c>
       <c r="H16">
-        <v>0.1646031140560353</v>
+        <v>0.1642597345080929</v>
       </c>
       <c r="I16">
-        <v>0.009522170914704198</v>
+        <v>0.008700208306166246</v>
       </c>
       <c r="J16">
-        <v>0.1374260161090604</v>
+        <v>0.1579108046505162</v>
       </c>
       <c r="K16">
-        <v>0.08099698247423978</v>
+        <v>0.0847110604049186</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.07134165689379479</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.008919215235481448</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.5581154723673976</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5569646024366719</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.903308668303566</v>
+        <v>3.894998965153604</v>
       </c>
       <c r="C17">
-        <v>1.069363749660141</v>
+        <v>1.068230179098606</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06473730733640082</v>
+        <v>0.06138021896606638</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.1624155993536647</v>
+        <v>0.1449530939137205</v>
       </c>
       <c r="H17">
-        <v>0.1262723744493286</v>
+        <v>0.126005219799282</v>
       </c>
       <c r="I17">
-        <v>0.008427929729630357</v>
+        <v>0.007890050769526979</v>
       </c>
       <c r="J17">
-        <v>0.1597650585565233</v>
+        <v>0.1864476938041193</v>
       </c>
       <c r="K17">
-        <v>0.0916053181952492</v>
+        <v>0.09271492053360197</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.07387001114650918</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.01147989582762943</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.6072532396558969</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.6075619363878246</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.692891025720144</v>
+        <v>3.683859028656514</v>
       </c>
       <c r="C18">
-        <v>1.044542952443692</v>
+        <v>1.060326811941394</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05887362799118456</v>
+        <v>0.05528986045211948</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.2460752202483718</v>
+        <v>0.2078813008147833</v>
       </c>
       <c r="H18">
-        <v>0.07350708551764029</v>
+        <v>0.07325316902016965</v>
       </c>
       <c r="I18">
-        <v>0.007758800284697998</v>
+        <v>0.007282361788782055</v>
       </c>
       <c r="J18">
-        <v>0.2065708008403888</v>
+        <v>0.2284187122174473</v>
       </c>
       <c r="K18">
-        <v>0.1150510193565246</v>
+        <v>0.1084939795601807</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.07980416246772393</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.01699048638480871</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.7420766928500981</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.744636054420333</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.517320751458612</v>
+        <v>3.506366478579309</v>
       </c>
       <c r="C19">
-        <v>1.041743140191159</v>
+        <v>1.077292347736091</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.111790134586748</v>
+        <v>0.1067823826110761</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.377250809579678</v>
+        <v>0.3053277229694231</v>
       </c>
       <c r="H19">
-        <v>0.02907822086437051</v>
+        <v>0.02877541239473658</v>
       </c>
       <c r="I19">
-        <v>0.007990967155333095</v>
+        <v>0.007508397390954435</v>
       </c>
       <c r="J19">
-        <v>0.2760571789010129</v>
+        <v>0.2828213179160599</v>
       </c>
       <c r="K19">
-        <v>0.1596129263144981</v>
+        <v>0.1367179814335753</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.09052694171188236</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.02746832217102124</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9538253741619158</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.9595355097254981</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.443034486090482</v>
+        <v>3.426623790390806</v>
       </c>
       <c r="C20">
-        <v>1.090704727335634</v>
+        <v>1.15547454637391</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3208782012576208</v>
+        <v>0.3111932097336023</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.6455654388226151</v>
+        <v>0.5046052959746277</v>
       </c>
       <c r="H20">
-        <v>0.006283524760664072</v>
+        <v>0.005710536845044079</v>
       </c>
       <c r="I20">
-        <v>0.009974807347838066</v>
+        <v>0.009052321927752516</v>
       </c>
       <c r="J20">
-        <v>0.4110383839548604</v>
+        <v>0.363716718171716</v>
       </c>
       <c r="K20">
-        <v>0.2621525740654995</v>
+        <v>0.195099078619247</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1109447857139774</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.05206361588089337</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.374487442136257</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.385535723199879</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.85776856335184</v>
+        <v>3.834916568493952</v>
       </c>
       <c r="C21">
-        <v>1.225663418349541</v>
+        <v>1.276821210224</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3819924318805263</v>
+        <v>0.3698672885801102</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.7361849685638759</v>
+        <v>0.608444299103482</v>
       </c>
       <c r="H21">
-        <v>0.009944588458289027</v>
+        <v>0.008841337760883416</v>
       </c>
       <c r="I21">
-        <v>0.01447272803784916</v>
+        <v>0.01233561945465755</v>
       </c>
       <c r="J21">
-        <v>0.4469230362971643</v>
+        <v>0.2707597256402039</v>
       </c>
       <c r="K21">
-        <v>0.2766981626302965</v>
+        <v>0.1765635240636243</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1000770309605183</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.05230398800084402</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.582498166016805</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.589957633401539</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.1395337655199</v>
+        <v>4.112303213394284</v>
       </c>
       <c r="C22">
-        <v>1.310570103434884</v>
+        <v>1.349516502726772</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.409236910795606</v>
+        <v>0.395779647640488</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.7896945076459616</v>
+        <v>0.6774604243108939</v>
       </c>
       <c r="H22">
-        <v>0.01262256709868387</v>
+        <v>0.01110971176817546</v>
       </c>
       <c r="I22">
-        <v>0.01758250337057721</v>
+        <v>0.01442607049823241</v>
       </c>
       <c r="J22">
-        <v>0.4674968516148112</v>
+        <v>0.2145256267562843</v>
       </c>
       <c r="K22">
-        <v>0.2841605367420605</v>
+        <v>0.1627827476838988</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.09283217887950279</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.05181058885877476</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.699080767691456</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.703404903553476</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.98958354804455</v>
+        <v>3.964542683941147</v>
       </c>
       <c r="C23">
-        <v>1.261703090657818</v>
+        <v>1.310927854882607</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3949429328266589</v>
+        <v>0.3820627030914636</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.7673039250561544</v>
+        <v>0.6403631429026149</v>
       </c>
       <c r="H23">
-        <v>0.01116644137402803</v>
+        <v>0.0098902007926348</v>
       </c>
       <c r="I23">
-        <v>0.01564123257201011</v>
+        <v>0.01299774811716414</v>
       </c>
       <c r="J23">
-        <v>0.4596755210839945</v>
+        <v>0.2551302823566743</v>
       </c>
       <c r="K23">
-        <v>0.2833472782441184</v>
+        <v>0.1739824876417586</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.09789885317650793</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.05374168399707102</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.636206739021262</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.642914138893417</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.422242308648833</v>
+        <v>3.405543791410025</v>
       </c>
       <c r="C24">
-        <v>1.083964997704811</v>
+        <v>1.151355416054287</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.340843505357121</v>
+        <v>0.3307548917710292</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.6751247810651648</v>
+        <v>0.5261009302796538</v>
       </c>
       <c r="H24">
-        <v>0.00638443318919385</v>
+        <v>0.005798050061728177</v>
       </c>
       <c r="I24">
-        <v>0.009588068566769081</v>
+        <v>0.008552406211149943</v>
       </c>
       <c r="J24">
-        <v>0.4263251911039276</v>
+        <v>0.3758064440982878</v>
       </c>
       <c r="K24">
-        <v>0.2763278616748579</v>
+        <v>0.2043209186734671</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1143568287872068</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.05558089408782863</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.4002831435552</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.411915965080837</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.812238489208028</v>
+        <v>2.804143353707559</v>
       </c>
       <c r="C25">
-        <v>0.8949912748592226</v>
+        <v>0.9447657193740326</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2832626568834229</v>
+        <v>0.2768369395305541</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.5811224380739333</v>
+        <v>0.4605671797989004</v>
       </c>
       <c r="H25">
-        <v>0.002617357440781509</v>
+        <v>0.002427872581035273</v>
       </c>
       <c r="I25">
-        <v>0.004797490818775785</v>
+        <v>0.004726460100559216</v>
       </c>
       <c r="J25">
-        <v>0.3932889977068328</v>
+        <v>0.3706990263238765</v>
       </c>
       <c r="K25">
-        <v>0.2713345574692525</v>
+        <v>0.215213638032445</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1251945970295694</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.04995061943442103</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.147816843147595</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>1.157668825348892</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
